--- a/GCF_DataFiles/2024-08-09 2960-4105 Québec Inc. (Mini excavation).xlsx
+++ b/GCF_DataFiles/2024-08-09 2960-4105 Québec Inc. (Mini excavation).xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Clients\1- Clients Michel\3-Facturation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\GCF_DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957DAE14-EE4E-48EF-A86A-52C397D684B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0985B2-E879-45DD-9460-53E6E77FD9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="09-08-2024" sheetId="4" r:id="rId1"/>
     <sheet name="Activités" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
     <definedName name="Print_Area" localSheetId="0">'09-08-2024'!$A$1:$F$89</definedName>
     <definedName name="Print_Area" localSheetId="1">Activités!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'09-08-2024'!$A$1:$F$89</definedName>
@@ -748,6 +747,24 @@
     <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -760,9 +777,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
@@ -772,23 +786,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1230,7 +1229,7 @@
   <dimension ref="A12:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1328,7 +1327,7 @@
     </row>
     <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="53" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="21"/>
@@ -1365,14 +1364,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -1393,275 +1392,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -1683,17 +1682,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -1799,19 +1798,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -1819,9 +1818,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -1856,31 +1855,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="60" t="s">
+      <c r="A85" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -1892,26 +1891,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -1921,34 +1920,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -1965,6 +1936,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -1974,7 +1973,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2001,10 +2000,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2369,7 +2368,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="32" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>